--- a/Fab Detect Data.xlsx
+++ b/Fab Detect Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\fabric_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0DE057-BC10-46EB-8EF4-E9DF33D4ED6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AE72A8-634B-43DB-AA49-D8D726C07587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="38700" windowHeight="15435" xr2:uid="{1208F215-AED8-4F22-8F7E-E17F846BE2CB}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15435" xr2:uid="{1208F215-AED8-4F22-8F7E-E17F846BE2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,10 +272,6 @@
 Max: 24.754983822123684</t>
   </si>
   <si>
-    <t>Mean: 1.610011921864322
-Max: -0.18250914274139518</t>
-  </si>
-  <si>
     <t>Mean: -0.714862183466989
 Max: 9.807389826020636</t>
   </si>
@@ -376,6 +372,10 @@
   </si>
   <si>
     <t>2 WRONG</t>
+  </si>
+  <si>
+    <t>Mean: -1.610011921864322
+Max: -0.18250914274139518</t>
   </si>
 </sst>
 </file>
@@ -524,9 +524,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -575,6 +572,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -896,7 +896,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,375 +917,375 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="L4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>0.99566787003610102</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>61</v>
+      <c r="M6" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="23">
+        <v>0.98097990222705</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="24">
-        <v>0.98097990222705</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="10"/>
+      <c r="A8" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.99639639639639599</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.99639639639639599</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="D9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="M9" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="10"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
